--- a/biology/Zoologie/Caluromys_philander/Caluromys_philander.xlsx
+++ b/biology/Zoologie/Caluromys_philander/Caluromys_philander.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opossum laineux jaune, Opossum laineux à queue nue
-Caluromys philander, appelé Opossum laineux jaune[1] ou Opossum laineux à queue nue[réf. nécessaire], est une espèce de marsupiaux de la famille des Didelphidae. C'est un opossum d'Amérique d'environ 170 grammes, relativement rare et discret[2], décrit et nommé par Linné en 1758.
+Caluromys philander, appelé Opossum laineux jaune ou Opossum laineux à queue nue[réf. nécessaire], est une espèce de marsupiaux de la famille des Didelphidae. C'est un opossum d'Amérique d'environ 170 grammes, relativement rare et discret, décrit et nommé par Linné en 1758.
 Synonymes scientifiques : affinis, cajopolin, cayopollin, dichura, leucurus, trinitatis et venezuelae.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durée de vie : Un spécimen a vécu 6 ans et 3 mois en captivité[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durée de vie : Un spécimen a vécu 6 ans et 3 mois en captivité.
 Reproduction : Jusqu'à 3 portées par an, de 1 à 7 jeunes. La gestation, de 25 jours, pourrait être la plus longue chez les opossums[réf. nécessaire].
 Les parents s'occupent des petits 3 mois environ. Le jeune est autonome à 4 mois.
 </t>
@@ -546,10 +560,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cette espèce au Venezuela, sur l'île Margarita, en Trinité-et-Tobago, au Guyana, en Guyane française, au Suriname et au Brésil[4].
-Elle vit dans la forêt tropicale humide et la forêt subtropicale humide. C'est une espèce très arboricole qui descend rarement sur le sol[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette espèce au Venezuela, sur l'île Margarita, en Trinité-et-Tobago, au Guyana, en Guyane française, au Suriname et au Brésil.
+Elle vit dans la forêt tropicale humide et la forêt subtropicale humide. C'est une espèce très arboricole qui descend rarement sur le sol.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mère peut avoir 3 portées par an. Les portées varient de 4 à 6 petits. La gestation dure 14 jours. Les petits reste ensuite dans la poche de leur mère pendant 80 jours[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mère peut avoir 3 portées par an. Les portées varient de 4 à 6 petits. La gestation dure 14 jours. Les petits reste ensuite dans la poche de leur mère pendant 80 jours.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est considéré comme localement menacé ou disparu, dans les zones touchées par la déforestation.
 </t>
@@ -640,9 +660,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (19 mai 2010)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (19 mai 2010) :
 sous-espèce Caluromys philander affinis
 sous-espèce Caluromys philander dichurus
 sous-espèce Caluromys philander philander
